--- a/21.07.20_MTT_Perkin_data/CC50_PC3.xlsx
+++ b/21.07.20_MTT_Perkin_data/CC50_PC3.xlsx
@@ -105,9 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -412,7 +413,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>50</v>
@@ -450,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>50</v>
@@ -467,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>50</v>
@@ -481,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>50</v>
@@ -495,14 +496,14 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7">
@@ -520,10 +521,10 @@
         <v>10</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>4</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
       </c>
       <c r="D8">
         <v>50</v>
@@ -534,10 +535,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>50</v>
@@ -551,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>50</v>
